--- a/maps/report_map.xlsx
+++ b/maps/report_map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17260"/>
+    <workbookView windowWidth="30240" windowHeight="13580"/>
   </bookViews>
   <sheets>
     <sheet name="检验报告" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
   <si>
     <t>外委工序检验报告</t>
   </si>
   <si>
     <t>日期：             年          月        日</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>物料编码</t>
@@ -374,12 +377,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -846,7 +855,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,16 +879,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -888,90 +897,93 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1067,38 +1079,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1107,10 +1119,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1470,10 +1482,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1490,1081 +1502,1084 @@
     <col min="17" max="18" width="13.0865384615385" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:18">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+    <row r="1" ht="25" customHeight="1" spans="1:19">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="44" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="45"/>
+      <c r="R1" s="46"/>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:18">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="14" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" ht="23" customHeight="1" spans="1:18">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4" ht="23" customHeight="1" spans="1:18">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:18">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:18">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="G6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="J6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="K6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="32" t="s">
+      <c r="L6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="34" t="s">
+      <c r="M6" s="17"/>
+      <c r="N6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="34" t="s">
+      <c r="O6" s="34"/>
+      <c r="P6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="34"/>
+      <c r="Q6" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="35"/>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:18">
-      <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="37"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="38"/>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:18">
-      <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="37"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="36"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="38"/>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:18">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="37"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="36"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="38"/>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:18">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="37"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="38"/>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:18">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="37"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="36"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="38"/>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:18">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="37"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="36"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="38"/>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:18">
-      <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="35"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="37"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="36"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="38"/>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:18">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="37"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="36"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="38"/>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:18">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="35"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="37"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="36"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="38"/>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:18">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="37"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="38"/>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:18">
-      <c r="A17" s="2"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="35"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="37"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="36"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="38"/>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="35"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="37"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="36"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="38"/>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:18">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="37"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="36"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="38"/>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:18">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="35"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="37"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="36"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="38"/>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:18">
-      <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="37"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="36"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="38"/>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:18">
-      <c r="A22" s="2"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="37"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="36"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="38"/>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:18">
-      <c r="A23" s="2"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="35"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="37"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="36"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="38"/>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:18">
-      <c r="A24" s="2"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="35"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="37"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="36"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="38"/>
     </row>
     <row r="25" ht="16" customHeight="1" spans="1:18">
-      <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="35"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="37"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="36"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="38"/>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:18">
-      <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="35"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="37"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="36"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:18">
-      <c r="A27" s="2"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="35"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="37"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="36"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="38"/>
     </row>
     <row r="28" ht="16" customHeight="1" spans="1:18">
-      <c r="A28" s="2"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" s="35"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="37"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="36"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="38"/>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:18">
-      <c r="A29" s="2"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" s="35"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="37"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="36"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="38"/>
     </row>
     <row r="30" ht="16" customHeight="1" spans="1:18">
-      <c r="A30" s="2"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="35"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="37"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="36"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="38"/>
     </row>
     <row r="31" ht="16" customHeight="1" spans="1:18">
-      <c r="A31" s="2"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="35"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="37"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="36"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="38"/>
     </row>
     <row r="32" ht="16" customHeight="1" spans="1:18">
-      <c r="A32" s="2"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" s="35"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="37"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="36"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="38"/>
     </row>
     <row r="33" ht="16" customHeight="1" spans="1:18">
-      <c r="A33" s="2"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33" s="35"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="37"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="36"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="38"/>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:18">
-      <c r="A34" s="2"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34" s="35"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="37"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="36"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="38"/>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:18">
-      <c r="A35" s="2"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" s="35"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="37"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="36"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="38"/>
     </row>
     <row r="36" ht="16" customHeight="1" spans="1:18">
-      <c r="A36" s="2"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36" s="35"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="37"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="36"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="38"/>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:18">
-      <c r="A37" s="2"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M37" s="35"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="37"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" s="36"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="38"/>
     </row>
     <row r="38" ht="16" customHeight="1" spans="1:18">
-      <c r="A38" s="2"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M38" s="35"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="37"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="36"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="38"/>
     </row>
     <row r="39" ht="16" customHeight="1" spans="1:18">
-      <c r="A39" s="2"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" s="35"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="37"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="36"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="38"/>
     </row>
     <row r="40" ht="16" customHeight="1" spans="1:18">
-      <c r="A40" s="2"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="35"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="37"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" s="36"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="38"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="21" t="s">
+      <c r="A41" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="39" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O41" s="40"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41" t="s">
+      <c r="I41" s="29"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="R41" s="46"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="R41" s="47"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="47"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="48"/>
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:18">
-      <c r="A43" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="48"/>
+      <c r="A43" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="49"/>
     </row>
     <row r="44" ht="55" customHeight="1" spans="1:18">
-      <c r="A44" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="48"/>
+      <c r="A44" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="170">
@@ -2756,6 +2771,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
